--- a/neutralization_assays/data/neut_plate_reader_data/557v2_NeutralizationAssay.xlsx
+++ b/neutralization_assays/data/neut_plate_reader_data/557v2_NeutralizationAssay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39440" yWindow="5760" windowWidth="26840" windowHeight="11560" activeTab="2"/>
+    <workbookView xWindow="34180" yWindow="460" windowWidth="28340" windowHeight="17360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -406,12 +406,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Part of Plate</t>
-  </si>
-  <si>
-    <t>B1-G12</t>
-  </si>
-  <si>
     <t>Start Time:</t>
   </si>
   <si>
@@ -470,13 +464,19 @@
   </si>
   <si>
     <t>4/26/2019 9:58:43 AM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,8 +504,24 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +576,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -570,7 +592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
@@ -579,14 +601,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
     <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
@@ -895,7 +922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1100,67 +1129,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>40</v>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>9325</v>
@@ -1201,7 +1227,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>29771</v>
@@ -1242,7 +1268,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>28336</v>
@@ -1283,7 +1309,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>27758</v>
@@ -1324,7 +1350,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>26357</v>
@@ -1365,7 +1391,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>25141</v>
@@ -1404,12 +1430,17 @@
         <v>20872</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1422,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1465,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1629,67 +1660,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>5733</v>
@@ -1730,7 +1758,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>27380</v>
@@ -1771,7 +1799,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>25079</v>
@@ -1812,7 +1840,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>22405</v>
@@ -1853,7 +1881,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>22340</v>
@@ -1894,7 +1922,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>20204</v>
@@ -1933,12 +1961,17 @@
         <v>23260</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1985,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1994,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2158,67 +2191,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>56</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>10104</v>
@@ -2259,7 +2289,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>30954</v>
@@ -2300,7 +2330,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>29367</v>
@@ -2341,7 +2371,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>28970</v>
@@ -2382,7 +2412,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>28820</v>
@@ -2423,7 +2453,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>28167</v>
@@ -2462,12 +2492,17 @@
         <v>28597</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
